--- a/input/system-requirements/IMMZ DAK_functional and non-functional requirements.xlsx
+++ b/input/system-requirements/IMMZ DAK_functional and non-functional requirements.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg.sharepoint.com/sites/DigitalAcceleratorKits/Shared Documents/Immunizations Digital Accelerator Kit/_FINAL spreadsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WHO\GitHub\smart-dak-immunizations\input\system-requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{C37C3606-DD54-425E-9E4C-762F66653A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64052961-192B-4322-93FE-A2166E58DC74}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD41957E-10F4-49AF-98F7-8D47AB528321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D99AAAA5-616A-46C3-AA21-7263727BF10F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D99AAAA5-616A-46C3-AA21-7263727BF10F}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="5" r:id="rId1"/>
@@ -2314,7 +2314,7 @@
     <t>Be able to accommodate at least [x number of] concurrent users</t>
   </si>
   <si>
-    <t>https://smart.who.int/dak-immz/v1.0.0/IMMZ DAK_functional and non-functional requirements.xlsx
+    <t>https://smart.who.int/dak-immz/v0.9.9/IMMZ DAK_functional and non-functional requirements.xlsx
 © World Health Organization 2024. Some rights reserved. This work is available under the</t>
   </si>
 </sst>
@@ -2779,20 +2779,8 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2809,6 +2797,15 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2824,20 +2821,23 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3218,9 +3218,7 @@
   </sheetPr>
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3239,122 +3237,122 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
     </row>
     <row r="9" spans="1:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="4"/>
@@ -3371,37 +3369,37 @@
     </row>
     <row r="11" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="31" t="s">
+      <c r="C11" s="29"/>
+      <c r="D11" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="33"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="29"/>
     </row>
     <row r="12" spans="1:11" ht="64.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="26" t="s">
+      <c r="C12" s="39"/>
+      <c r="D12" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="28"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="34"/>
     </row>
     <row r="13" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
@@ -3409,16 +3407,16 @@
       <c r="C13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="28"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="34"/>
     </row>
     <row r="14" spans="1:11" ht="35.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
@@ -3426,16 +3424,16 @@
       <c r="C14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="28"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="34"/>
     </row>
     <row r="15" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
@@ -3443,16 +3441,16 @@
       <c r="C15" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="28"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="34"/>
     </row>
     <row r="16" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
@@ -3460,16 +3458,16 @@
       <c r="C16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="28"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="34"/>
     </row>
     <row r="17" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
@@ -3477,33 +3475,33 @@
       <c r="C17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="28"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="34"/>
     </row>
     <row r="18" spans="1:11" ht="68.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="36" t="s">
+      <c r="C18" s="43"/>
+      <c r="D18" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="38"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="37"/>
     </row>
     <row r="19" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
@@ -3511,16 +3509,16 @@
       <c r="C19" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="28"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="34"/>
     </row>
     <row r="20" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
@@ -3528,16 +3526,16 @@
       <c r="C20" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="28"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="34"/>
     </row>
     <row r="21" spans="1:11" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
@@ -3545,16 +3543,16 @@
       <c r="C21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="28"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="34"/>
     </row>
     <row r="22" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
@@ -3570,23 +3568,28 @@
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="40" t="s">
         <v>757</v>
       </c>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="45" t="s">
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="26" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D19:K19"/>
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="D11:K11"/>
     <mergeCell ref="B1:K8"/>
     <mergeCell ref="B9:K9"/>
@@ -3599,11 +3602,6 @@
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="D16:K16"/>
     <mergeCell ref="D17:K17"/>
-    <mergeCell ref="D19:K19"/>
-    <mergeCell ref="D20:K20"/>
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="B18:C18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K23" r:id="rId1" display="https://creativecommons.org/licenses/by-nc-sa/3.0/igo" xr:uid="{B40C5C60-4CB3-4892-BAEE-498FC513AC3B}"/>
@@ -3654,12 +3652,12 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
       <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" s="23" customFormat="1" ht="58" x14ac:dyDescent="0.35">
@@ -3952,12 +3950,12 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
       <c r="E20" s="13"/>
     </row>
     <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4148,12 +4146,12 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
       <c r="E32" s="13"/>
     </row>
     <row r="33" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4445,7 +4443,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="24" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" s="24" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="14" t="s">
         <v>179</v>
       </c>
@@ -4599,12 +4597,12 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="42" t="s">
+      <c r="A59" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="B59" s="42"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="42"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
       <c r="E59" s="13"/>
     </row>
     <row r="60" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -4982,12 +4980,12 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82" s="42" t="s">
+      <c r="A82" s="45" t="s">
         <v>283</v>
       </c>
-      <c r="B82" s="42"/>
-      <c r="C82" s="42"/>
-      <c r="D82" s="42"/>
+      <c r="B82" s="45"/>
+      <c r="C82" s="45"/>
+      <c r="D82" s="45"/>
       <c r="E82" s="13"/>
     </row>
     <row r="83" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -5212,12 +5210,12 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A96" s="42" t="s">
+      <c r="A96" s="45" t="s">
         <v>327</v>
       </c>
-      <c r="B96" s="42"/>
-      <c r="C96" s="42"/>
-      <c r="D96" s="42"/>
+      <c r="B96" s="45"/>
+      <c r="C96" s="45"/>
+      <c r="D96" s="45"/>
       <c r="E96" s="13"/>
     </row>
     <row r="97" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -5493,12 +5491,12 @@
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A113" s="42" t="s">
+      <c r="A113" s="45" t="s">
         <v>384</v>
       </c>
-      <c r="B113" s="42"/>
-      <c r="C113" s="42"/>
-      <c r="D113" s="42"/>
+      <c r="B113" s="45"/>
+      <c r="C113" s="45"/>
+      <c r="D113" s="45"/>
       <c r="E113" s="13"/>
     </row>
     <row r="114" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -5740,12 +5738,12 @@
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A128" s="41" t="s">
+      <c r="A128" s="44" t="s">
         <v>433</v>
       </c>
-      <c r="B128" s="41"/>
-      <c r="C128" s="41"/>
-      <c r="D128" s="41"/>
+      <c r="B128" s="44"/>
+      <c r="C128" s="44"/>
+      <c r="D128" s="44"/>
       <c r="E128" s="8"/>
     </row>
     <row r="129" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -6004,12 +6002,12 @@
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A144" s="42" t="s">
+      <c r="A144" s="45" t="s">
         <v>479</v>
       </c>
-      <c r="B144" s="42"/>
-      <c r="C144" s="42"/>
-      <c r="D144" s="42"/>
+      <c r="B144" s="45"/>
+      <c r="C144" s="45"/>
+      <c r="D144" s="45"/>
       <c r="E144" s="13"/>
     </row>
     <row r="145" spans="1:5" s="23" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
@@ -7526,6 +7524,83 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="51983ca6-de84-41fa-9a65-1d08ee1009bc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="73389989-ac93-4f39-a9f3-2949bbf25fcc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <SharedWithUsers xmlns="51983ca6-de84-41fa-9a65-1d08ee1009bc">
+      <UserInfo>
+        <DisplayName>NASH-MENDEZ, Natschja</DisplayName>
+        <AccountId>7</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>BROOKS, Donald Joseph</DisplayName>
+        <AccountId>421</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>PALLIWAL, Akshita</DisplayName>
+        <AccountId>155</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>GACIC-DOBO, Marta</DisplayName>
+        <AccountId>450</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>DANOVARO, M. Carolina</DisplayName>
+        <AccountId>440</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Laura NIC LOCHLAINN</DisplayName>
+        <AccountId>457</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>GREVENDONK, Jan</DisplayName>
+        <AccountId>23</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>GOODMAN, Tracey S.</DisplayName>
+        <AccountId>236</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>SHENDALE, Stephanie</DisplayName>
+        <AccountId>452</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>CORMAN, Constantin</DisplayName>
+        <AccountId>200</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>MEHL, Garrett Livingston</DisplayName>
+        <AccountId>22</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008A6DDC313EDC9A43B330D8B6305883A5" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a5b0342cd22268e5e5d3683a3cff816e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="73389989-ac93-4f39-a9f3-2949bbf25fcc" xmlns:ns3="51983ca6-de84-41fa-9a65-1d08ee1009bc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c638d06e48d95e9efa3bb75773f50cd7" ns2:_="" ns3:_="">
     <xsd:import namespace="73389989-ac93-4f39-a9f3-2949bbf25fcc"/>
@@ -7780,98 +7855,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="51983ca6-de84-41fa-9a65-1d08ee1009bc" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="73389989-ac93-4f39-a9f3-2949bbf25fcc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <SharedWithUsers xmlns="51983ca6-de84-41fa-9a65-1d08ee1009bc">
-      <UserInfo>
-        <DisplayName>NASH-MENDEZ, Natschja</DisplayName>
-        <AccountId>7</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>BROOKS, Donald Joseph</DisplayName>
-        <AccountId>421</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>PALLIWAL, Akshita</DisplayName>
-        <AccountId>155</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>GACIC-DOBO, Marta</DisplayName>
-        <AccountId>450</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>DANOVARO, M. Carolina</DisplayName>
-        <AccountId>440</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Laura NIC LOCHLAINN</DisplayName>
-        <AccountId>457</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>GREVENDONK, Jan</DisplayName>
-        <AccountId>23</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>GOODMAN, Tracey S.</DisplayName>
-        <AccountId>236</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>SHENDALE, Stephanie</DisplayName>
-        <AccountId>452</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>CORMAN, Constantin</DisplayName>
-        <AccountId>200</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>MEHL, Garrett Livingston</DisplayName>
-        <AccountId>22</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{385E0AAD-CEF5-4038-BBBB-F1367CFC3E32}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D04AF83-9887-434B-B83F-8F76777F869C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="73389989-ac93-4f39-a9f3-2949bbf25fcc"/>
-    <ds:schemaRef ds:uri="51983ca6-de84-41fa-9a65-1d08ee1009bc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7894,9 +7881,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D04AF83-9887-434B-B83F-8F76777F869C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{385E0AAD-CEF5-4038-BBBB-F1367CFC3E32}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="73389989-ac93-4f39-a9f3-2949bbf25fcc"/>
+    <ds:schemaRef ds:uri="51983ca6-de84-41fa-9a65-1d08ee1009bc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/input/system-requirements/IMMZ DAK_functional and non-functional requirements.xlsx
+++ b/input/system-requirements/IMMZ DAK_functional and non-functional requirements.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WHO\GitHub\smart-dak-immunizations\input\system-requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg.sharepoint.com/sites/DigitalAcceleratorKits/Shared Documents/Immunizations Digital Accelerator Kit/_FINAL spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD41957E-10F4-49AF-98F7-8D47AB528321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{C37C3606-DD54-425E-9E4C-762F66653A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64052961-192B-4322-93FE-A2166E58DC74}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D99AAAA5-616A-46C3-AA21-7263727BF10F}"/>
   </bookViews>
@@ -2314,7 +2314,7 @@
     <t>Be able to accommodate at least [x number of] concurrent users</t>
   </si>
   <si>
-    <t>https://smart.who.int/dak-immz/v0.9.9/IMMZ DAK_functional and non-functional requirements.xlsx
+    <t>https://smart.who.int/dak-immz/v1.0.0/IMMZ DAK_functional and non-functional requirements.xlsx
 © World Health Organization 2024. Some rights reserved. This work is available under the</t>
   </si>
 </sst>
